--- a/database/sia/expdata/1002.xlsx
+++ b/database/sia/expdata/1002.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>col</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>z2</t>
+  </si>
+  <si>
+    <t>pT</t>
   </si>
   <si>
     <t>S2/1+C2</t>
@@ -83,7 +86,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="14"/>
@@ -217,14 +220,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -306,13 +309,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -411,10 +408,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -669,13 +666,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -988,10 +979,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1242,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1256,14 +1247,15 @@
     <col min="6" max="6" width="5.67188" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.67188" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.85156" style="1" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85156" style="1" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1">
@@ -1312,10 +1304,13 @@
       <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="12" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>10.6</v>
@@ -1339,30 +1334,33 @@
         <v>0.174</v>
       </c>
       <c r="I2" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.6870000000000001</v>
       </c>
-      <c r="J2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="K2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4">
         <v>0.52</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>0.11</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>0.03</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>10.6</v>
@@ -1386,30 +1384,33 @@
         <v>0.244</v>
       </c>
       <c r="I3" s="3">
+        <v>0.364</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.6830000000000001</v>
       </c>
-      <c r="J3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="K3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.66</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>0.1</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.03</v>
       </c>
-      <c r="N3" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>10.6</v>
@@ -1433,30 +1434,33 @@
         <v>0.344</v>
       </c>
       <c r="I4" s="3">
+        <v>0.356</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.676</v>
       </c>
-      <c r="J4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="K4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4">
         <v>0.61</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>0.14</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0.04</v>
       </c>
-      <c r="N4" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>10.6</v>
@@ -1480,30 +1484,33 @@
         <v>0.444</v>
       </c>
       <c r="I5" s="3">
+        <v>0.351</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.671</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="K5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.65</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>0.14</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>0.04</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O5" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="12" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>10.6</v>
@@ -1527,30 +1534,33 @@
         <v>0.577</v>
       </c>
       <c r="I6" s="3">
+        <v>0.346</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.663</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="K6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.78</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>0.17</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>0.06</v>
       </c>
-      <c r="N6" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O6" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>10.6</v>
@@ -1574,30 +1584,33 @@
         <v>0.772</v>
       </c>
       <c r="I7" s="3">
+        <v>0.339</v>
+      </c>
+      <c r="J7" s="3">
         <v>0.655</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="K7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4">
         <v>1.05</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>0.21</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0.06</v>
       </c>
-      <c r="N7" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O7" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>10.6</v>
@@ -1621,30 +1634,33 @@
         <v>0.174</v>
       </c>
       <c r="I8" s="3">
+        <v>0.511</v>
+      </c>
+      <c r="J8" s="3">
         <v>0.6850000000000001</v>
       </c>
-      <c r="J8" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="K8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4">
         <v>0.57</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>0.1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0.03</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O8" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>10.6</v>
@@ -1668,30 +1684,33 @@
         <v>0.244</v>
       </c>
       <c r="I9" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="J9" s="3">
         <v>0.6820000000000001</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="K9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L9" s="4">
         <v>0.7</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.09</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0.03</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O9" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="12" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>10.6</v>
@@ -1715,30 +1734,33 @@
         <v>0.344</v>
       </c>
       <c r="I10" s="3">
+        <v>0.467</v>
+      </c>
+      <c r="J10" s="3">
         <v>0.676</v>
       </c>
-      <c r="J10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="K10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4">
         <v>0.82</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>0.13</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>0.04</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>10.6</v>
@@ -1762,30 +1784,33 @@
         <v>0.444</v>
       </c>
       <c r="I11" s="3">
+        <v>0.453</v>
+      </c>
+      <c r="J11" s="3">
         <v>0.672</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="K11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.77</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.13</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0.04</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="12" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>10.6</v>
@@ -1809,30 +1834,33 @@
         <v>0.577</v>
       </c>
       <c r="I12" s="3">
+        <v>0.438</v>
+      </c>
+      <c r="J12" s="3">
         <v>0.665</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="K12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>0.15</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>0.06</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>10.6</v>
@@ -1856,30 +1884,33 @@
         <v>0.772</v>
       </c>
       <c r="I13" s="3">
+        <v>0.412</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.658</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="K13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L13" s="4">
         <v>1.25</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.19</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>0.06</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O13" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="12" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>10.6</v>
@@ -1903,30 +1934,33 @@
         <v>0.174</v>
       </c>
       <c r="I14" s="3">
+        <v>0.707</v>
+      </c>
+      <c r="J14" s="3">
         <v>0.6820000000000001</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="K14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L14" s="4">
         <v>0.58</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>0.14</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>0.04</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="12" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
         <v>10.6</v>
@@ -1950,30 +1984,33 @@
         <v>0.244</v>
       </c>
       <c r="I15" s="3">
+        <v>0.661</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.68</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="K15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L15" s="4">
         <v>0.63</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>0.13</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>0.04</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O15" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="12" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>10.6</v>
@@ -1997,30 +2034,33 @@
         <v>0.344</v>
       </c>
       <c r="I16" s="3">
+        <v>0.613</v>
+      </c>
+      <c r="J16" s="3">
         <v>0.674</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="K16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L16" s="4">
         <v>0.95</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>0.19</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="12" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>10.6</v>
@@ -2044,30 +2084,33 @@
         <v>0.444</v>
       </c>
       <c r="I17" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="J17" s="3">
         <v>0.671</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="K17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.8</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>0.19</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O17" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="12" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>10.6</v>
@@ -2091,30 +2134,33 @@
         <v>0.577</v>
       </c>
       <c r="I18" s="3">
+        <v>0.548</v>
+      </c>
+      <c r="J18" s="3">
         <v>0.665</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="K18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L18" s="4">
         <v>1.11</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>0.22</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>0.11</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O18" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>10.6</v>
@@ -2138,30 +2184,33 @@
         <v>0.772</v>
       </c>
       <c r="I19" s="3">
+        <v>0.493</v>
+      </c>
+      <c r="J19" s="3">
         <v>0.659</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="K19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L19" s="4">
         <v>1.66</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>0.28</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>0.12</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O19" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="12" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
         <v>10.6</v>
@@ -2185,30 +2234,33 @@
         <v>0.174</v>
       </c>
       <c r="I20" s="3">
+        <v>0.901</v>
+      </c>
+      <c r="J20" s="3">
         <v>0.68</v>
       </c>
-      <c r="J20" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="K20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4">
         <v>0.47</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>0.14</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0.04</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="12" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
         <v>10.6</v>
@@ -2232,30 +2284,33 @@
         <v>0.244</v>
       </c>
       <c r="I21" s="3">
+        <v>0.828</v>
+      </c>
+      <c r="J21" s="3">
         <v>0.678</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="K21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L21" s="4">
         <v>0.74</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>0.13</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>0.04</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O21" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="12" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3">
         <v>10.6</v>
@@ -2279,30 +2334,33 @@
         <v>0.344</v>
       </c>
       <c r="I22" s="3">
+        <v>0.752</v>
+      </c>
+      <c r="J22" s="3">
         <v>0.673</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="K22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L22" s="4">
         <v>0.84</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>0.19</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O22" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3">
         <v>10.6</v>
@@ -2326,30 +2384,33 @@
         <v>0.444</v>
       </c>
       <c r="I23" s="3">
+        <v>0.699</v>
+      </c>
+      <c r="J23" s="3">
         <v>0.669</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="K23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L23" s="4">
         <v>0.78</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>0.22</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O23" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3">
         <v>10.6</v>
@@ -2373,30 +2434,33 @@
         <v>0.578</v>
       </c>
       <c r="I24" s="3">
+        <v>0.647</v>
+      </c>
+      <c r="J24" s="3">
         <v>0.664</v>
       </c>
-      <c r="J24" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="K24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L24" s="4">
         <v>1.32</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>0.24</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>0.11</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O24" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="12" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3">
         <v>10.6</v>
@@ -2420,30 +2484,33 @@
         <v>0.774</v>
       </c>
       <c r="I25" s="3">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="J25" s="3">
         <v>0.659</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="K25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L25" s="4">
         <v>1.77</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>0.39</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>0.12</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O25" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="12" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3">
         <v>10.6</v>
@@ -2467,30 +2534,33 @@
         <v>0.174</v>
       </c>
       <c r="I26" s="3">
+        <v>1.155</v>
+      </c>
+      <c r="J26" s="3">
         <v>0.677</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="K26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L26" s="4">
         <v>0.72</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>0.17</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>0.06</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="12" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3">
         <v>10.6</v>
@@ -2514,30 +2584,33 @@
         <v>0.244</v>
       </c>
       <c r="I27" s="3">
+        <v>1.042</v>
+      </c>
+      <c r="J27" s="3">
         <v>0.675</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="K27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L27" s="4">
         <v>0.9</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>0.15</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>0.06</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="12" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3">
         <v>10.6</v>
@@ -2561,30 +2634,33 @@
         <v>0.344</v>
       </c>
       <c r="I28" s="3">
+        <v>0.921</v>
+      </c>
+      <c r="J28" s="3">
         <v>0.671</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="K28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L28" s="4">
         <v>1.13</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>0.22</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>0.1</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O28" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3">
         <v>10.6</v>
@@ -2608,30 +2684,33 @@
         <v>0.444</v>
       </c>
       <c r="I29" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="J29" s="3">
         <v>0.667</v>
       </c>
-      <c r="J29" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="K29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L29" s="4">
         <v>1.23</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>0.24</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>0.11</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O29" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
         <v>10.6</v>
@@ -2655,30 +2734,33 @@
         <v>0.579</v>
       </c>
       <c r="I30" s="3">
+        <v>0.769</v>
+      </c>
+      <c r="J30" s="3">
         <v>0.662</v>
       </c>
-      <c r="J30" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="K30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L30" s="4">
         <v>1.74</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>0.28</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>0.16</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O30" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3">
         <v>10.6</v>
@@ -2702,30 +2784,33 @@
         <v>0.775</v>
       </c>
       <c r="I31" s="3">
+        <v>0.653</v>
+      </c>
+      <c r="J31" s="3">
         <v>0.656</v>
       </c>
-      <c r="J31" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="K31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L31" s="4">
         <v>2.7</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>0.44</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>0.17</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="12" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3">
         <v>10.6</v>
@@ -2749,30 +2834,33 @@
         <v>0.174</v>
       </c>
       <c r="I32" s="3">
+        <v>1.515</v>
+      </c>
+      <c r="J32" s="3">
         <v>0.672</v>
       </c>
-      <c r="J32" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="K32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L32" s="4">
         <v>1</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>0.21</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>0.06</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O32" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3">
         <v>10.6</v>
@@ -2796,30 +2884,33 @@
         <v>0.244</v>
       </c>
       <c r="I33" s="3">
+        <v>1.314</v>
+      </c>
+      <c r="J33" s="3">
         <v>0.672</v>
       </c>
-      <c r="J33" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="K33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L33" s="4">
         <v>1.22</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>0.19</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="12" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3">
         <v>10.6</v>
@@ -2843,30 +2934,33 @@
         <v>0.344</v>
       </c>
       <c r="I34" s="3">
+        <v>1.111</v>
+      </c>
+      <c r="J34" s="3">
         <v>0.668</v>
       </c>
-      <c r="J34" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="K34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L34" s="4">
         <v>1.53</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>0.28</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>0.11</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O34" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="12" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3">
         <v>10.6</v>
@@ -2890,30 +2984,33 @@
         <v>0.445</v>
       </c>
       <c r="I35" s="3">
+        <v>0.978</v>
+      </c>
+      <c r="J35" s="3">
         <v>0.665</v>
       </c>
-      <c r="J35" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="K35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L35" s="4">
         <v>2.16</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>0.4</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>0.12</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O35" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="12" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3">
         <v>10.6</v>
@@ -2937,30 +3034,33 @@
         <v>0.58</v>
       </c>
       <c r="I36" s="3">
+        <v>0.869</v>
+      </c>
+      <c r="J36" s="3">
         <v>0.659</v>
       </c>
-      <c r="J36" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="K36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L36" s="4">
         <v>2.56</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>0.44</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>0.17</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O36" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="12" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3">
         <v>10.6</v>
@@ -2984,32 +3084,35 @@
         <v>0.776</v>
       </c>
       <c r="I37" s="3">
+        <v>0.735</v>
+      </c>
+      <c r="J37" s="3">
         <v>0.651</v>
       </c>
-      <c r="J37" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="K37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L37" s="4">
         <v>3.52</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>0.83</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>0.18</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="O37" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/database/sia/expdata/1002.xlsx
+++ b/database/sia/expdata/1002.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sia/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="17720" yWindow="1700" windowWidth="28440" windowHeight="21640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
   <si>
     <t>col</t>
   </si>
@@ -73,23 +89,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -133,52 +140,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -380,7 +438,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -399,7 +457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -429,7 +487,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -455,7 +513,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -481,7 +539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -507,7 +565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -533,7 +591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -559,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,9 +708,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -669,7 +733,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -688,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,9 +999,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -951,7 +1021,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -970,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,1896 +1291,1896 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.67188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85156" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="5.6640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.83203125" style="1" customWidth="1"/>
+    <col min="17" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.2</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.15</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>0.2</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I2" s="6">
         <v>0.372</v>
       </c>
-      <c r="J2" s="3">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="J2" s="8">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3">
         <v>0.52</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>0.11</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>0.03</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="12" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>0.2</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0.3</v>
       </c>
-      <c r="H3" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.364</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="H3" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3">
         <v>0.66</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>0.1</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>0.03</v>
       </c>
-      <c r="O3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.15</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.2</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.4</v>
       </c>
-      <c r="H4" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.356</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.676</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="H4" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3">
         <v>0.61</v>
       </c>
-      <c r="M4" s="4">
-        <v>0.14</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N4" s="3">
         <v>0.04</v>
       </c>
-      <c r="O4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.5</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.351</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="H5" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3">
         <v>0.65</v>
       </c>
-      <c r="M5" s="4">
-        <v>0.14</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N5" s="3">
         <v>0.04</v>
       </c>
-      <c r="O5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="O5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.2</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.7</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.577</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.346</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.663</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="H6" s="6">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3">
         <v>0.78</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>0.17</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.06</v>
       </c>
-      <c r="O6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="O6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>0.2</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.7</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>0.9</v>
       </c>
-      <c r="H7" s="3">
-        <v>0.772</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.339</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.655</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="H7" s="6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="3">
         <v>1.05</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>0.21</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0.06</v>
       </c>
-      <c r="O7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="O7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.15</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>0.2</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.511</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.57</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="H8" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M8" s="3">
         <v>0.1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>0.03</v>
       </c>
-      <c r="O8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P8" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="O8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C9" s="4">
         <v>0.2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.3</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>0.3</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I9" s="6">
         <v>0.49</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="J9" s="8">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.7</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.09</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0.03</v>
       </c>
-      <c r="O9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="O9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>0.4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.467</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.676</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="H10" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3">
         <v>0.82</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.13</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>0.04</v>
       </c>
-      <c r="O10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="O10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C11" s="4">
         <v>0.2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>0.3</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>0.5</v>
       </c>
-      <c r="H11" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.453</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.672</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="H11" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3">
         <v>0.77</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.13</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0.04</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="O11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C12" s="4">
         <v>0.2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0.3</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>0.7</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.577</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="6">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I12" s="6">
         <v>0.438</v>
       </c>
-      <c r="J12" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="J12" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.15</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>0.06</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="O12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C13" s="4">
         <v>0.2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.3</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>0.9</v>
       </c>
-      <c r="H13" s="3">
-        <v>0.772</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.412</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.658</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="H13" s="6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3">
         <v>1.25</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.19</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0.06</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="O13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C14" s="4">
         <v>0.3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>0.4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.15</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>0.2</v>
       </c>
-      <c r="H14" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.707</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.58</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.14</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="H14" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N14" s="3">
         <v>0.04</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="O14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>0.4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>0.3</v>
       </c>
-      <c r="H15" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.661</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="H15" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J15" s="8">
         <v>0.68</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3">
         <v>0.63</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>0.13</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>0.04</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="O15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>0.4</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>0.4</v>
       </c>
-      <c r="H16" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.613</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.674</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="H16" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="3">
         <v>0.95</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.19</v>
       </c>
-      <c r="N16" s="4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="N16" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C17" s="4">
         <v>0.3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>0.4</v>
       </c>
-      <c r="E17" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>0.5</v>
       </c>
-      <c r="H17" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.58</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="H17" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3">
         <v>0.8</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>0.19</v>
       </c>
-      <c r="N17" s="4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="N17" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C18" s="4">
         <v>0.3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>0.4</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>0.7</v>
       </c>
-      <c r="H18" s="3">
-        <v>0.577</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.548</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1.11</v>
-      </c>
-      <c r="M18" s="4">
+      <c r="H18" s="6">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M18" s="3">
         <v>0.22</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>0.11</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="O18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C19" s="4">
         <v>0.3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>0.4</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.7</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>0.9</v>
       </c>
-      <c r="H19" s="3">
-        <v>0.772</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.493</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.659</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="H19" s="6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="3">
         <v>1.66</v>
       </c>
-      <c r="M19" s="4">
-        <v>0.28</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N19" s="3">
         <v>0.12</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="O19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C20" s="4">
         <v>0.4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>0.5</v>
       </c>
-      <c r="E20" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.15</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>0.2</v>
       </c>
-      <c r="H20" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.901</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="H20" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="J20" s="8">
         <v>0.68</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3">
         <v>0.47</v>
       </c>
-      <c r="M20" s="4">
-        <v>0.14</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="M20" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N20" s="3">
         <v>0.04</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="O20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C21" s="4">
         <v>0.4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>0.5</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>0.3</v>
       </c>
-      <c r="H21" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.828</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.678</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="H21" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3">
         <v>0.74</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>0.13</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>0.04</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="12" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="O21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C22" s="4">
         <v>0.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>0.5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F22" s="4">
         <v>0.3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>0.4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I22" s="6">
         <v>0.752</v>
       </c>
-      <c r="J22" s="3">
-        <v>0.673</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="J22" s="8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3">
         <v>0.84</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>0.19</v>
       </c>
-      <c r="N22" s="4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="12" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="N22" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C23" s="4">
         <v>0.4</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>0.5</v>
       </c>
-      <c r="E23" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F23" s="4">
         <v>0.4</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>0.5</v>
       </c>
-      <c r="H23" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.699</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.669</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="H23" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="3">
         <v>0.78</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>0.22</v>
       </c>
-      <c r="N23" s="4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="12" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="N23" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C24" s="4">
         <v>0.4</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>0.5</v>
       </c>
-      <c r="E24" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F24" s="4">
         <v>0.5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>0.7</v>
       </c>
-      <c r="H24" s="3">
-        <v>0.578</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.647</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.664</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="H24" s="6">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="3">
         <v>1.32</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>0.24</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>0.11</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P24" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="12" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="O24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C25" s="4">
         <v>0.4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>0.5</v>
       </c>
-      <c r="E25" s="3">
-        <v>0.445</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F25" s="4">
         <v>0.7</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>0.9</v>
       </c>
-      <c r="H25" s="3">
-        <v>0.774</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.659</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="H25" s="6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="3">
         <v>1.77</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>0.39</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>0.12</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="12" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="O25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C26" s="4">
         <v>0.5</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>0.7</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.577</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F26" s="4">
         <v>0.15</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <v>0.2</v>
       </c>
-      <c r="H26" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I26" s="6">
         <v>1.155</v>
       </c>
-      <c r="J26" s="3">
-        <v>0.677</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="J26" s="8">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="3">
         <v>0.72</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>0.17</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>0.06</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="12" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="O26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C27" s="4">
         <v>0.5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>0.7</v>
       </c>
-      <c r="E27" s="3">
-        <v>0.577</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F27" s="4">
         <v>0.2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <v>0.3</v>
       </c>
-      <c r="H27" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H27" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I27" s="6">
         <v>1.042</v>
       </c>
-      <c r="J27" s="3">
-        <v>0.675</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="J27" s="8">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="3">
         <v>0.9</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>0.15</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>0.06</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="12" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="O27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C28" s="4">
         <v>0.5</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>0.7</v>
       </c>
-      <c r="E28" s="3">
-        <v>0.577</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F28" s="4">
         <v>0.3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <v>0.4</v>
       </c>
-      <c r="H28" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.921</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L28" s="4">
-        <v>1.13</v>
-      </c>
-      <c r="M28" s="4">
+      <c r="H28" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M28" s="3">
         <v>0.22</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>0.1</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="12" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="O28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C29" s="4">
         <v>0.5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>0.7</v>
       </c>
-      <c r="E29" s="3">
-        <v>0.578</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="4">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F29" s="4">
         <v>0.4</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>0.5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0.444</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I29" s="6">
         <v>0.84</v>
       </c>
-      <c r="J29" s="3">
-        <v>0.667</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="J29" s="8">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="3">
         <v>1.23</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>0.24</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>0.11</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="12" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B30" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="O29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C30" s="4">
         <v>0.5</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>0.7</v>
       </c>
-      <c r="E30" s="3">
-        <v>0.579</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="4">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F30" s="4">
         <v>0.5</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>0.7</v>
       </c>
-      <c r="H30" s="3">
-        <v>0.579</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.769</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.662</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="H30" s="6">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="3">
         <v>1.74</v>
       </c>
-      <c r="M30" s="4">
-        <v>0.28</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="M30" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N30" s="3">
         <v>0.16</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="12" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="O30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C31" s="4">
         <v>0.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>0.7</v>
       </c>
-      <c r="E31" s="3">
-        <v>0.58</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F31" s="4">
         <v>0.7</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>0.9</v>
       </c>
-      <c r="H31" s="3">
-        <v>0.775</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.653</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0.656</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="H31" s="6">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="3">
         <v>2.7</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>0.44</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>0.17</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="12" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B32" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="O31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C32" s="4">
         <v>0.7</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>0.9</v>
       </c>
-      <c r="E32" s="3">
-        <v>0.772</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="4">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F32" s="4">
         <v>0.15</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>0.2</v>
       </c>
-      <c r="H32" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1.515</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0.672</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="H32" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="3">
         <v>1</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>0.21</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>0.06</v>
       </c>
-      <c r="O32" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" ht="12" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B33" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="O32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C33" s="4">
         <v>0.7</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>0.9</v>
       </c>
-      <c r="E33" s="3">
-        <v>0.772</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="4">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F33" s="4">
         <v>0.2</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>0.3</v>
       </c>
-      <c r="H33" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1.314</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.672</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="H33" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="3">
         <v>1.22</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>0.19</v>
       </c>
-      <c r="N33" s="4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" ht="12" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="N33" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C34" s="4">
         <v>0.7</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>0.9</v>
       </c>
-      <c r="E34" s="3">
-        <v>0.773</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F34" s="4">
         <v>0.3</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <v>0.4</v>
       </c>
-      <c r="H34" s="3">
-        <v>0.344</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="H34" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I34" s="6">
         <v>1.111</v>
       </c>
-      <c r="J34" s="3">
-        <v>0.668</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="J34" s="8">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="3">
         <v>1.53</v>
       </c>
-      <c r="M34" s="4">
-        <v>0.28</v>
-      </c>
-      <c r="N34" s="4">
+      <c r="M34" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N34" s="3">
         <v>0.11</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" ht="12" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B35" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="O34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C35" s="4">
         <v>0.7</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>0.9</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.774</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="4">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F35" s="4">
         <v>0.4</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <v>0.5</v>
       </c>
-      <c r="H35" s="3">
-        <v>0.445</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0.978</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="H35" s="6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="3">
         <v>2.16</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>0.4</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>0.12</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" ht="12" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B36" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="O35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C36" s="4">
         <v>0.7</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>0.9</v>
       </c>
-      <c r="E36" s="3">
-        <v>0.775</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F36" s="4">
         <v>0.5</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="4">
         <v>0.7</v>
       </c>
-      <c r="H36" s="3">
-        <v>0.58</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.869</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0.659</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="H36" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="3">
         <v>2.56</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <v>0.44</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>0.17</v>
       </c>
-      <c r="O36" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" ht="12" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="O36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C37" s="4">
         <v>0.7</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>0.9</v>
       </c>
-      <c r="E37" s="3">
-        <v>0.776</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F37" s="4">
         <v>0.7</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <v>0.9</v>
       </c>
-      <c r="H37" s="3">
-        <v>0.776</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.735</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.651</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="H37" s="6">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="3">
         <v>3.52</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>0.83</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>0.18</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="P37" t="s" s="2">
+      <c r="O37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
